--- a/DatosCasosRecodificada.xlsx
+++ b/DatosCasosRecodificada.xlsx
@@ -554,6 +554,40 @@
           <c:cat>
             <c:numRef>
               <c:f>datos!$B$102:$B$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
@@ -569,28 +603,28 @@
                   <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.55</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.55</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.55</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.55</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.55</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.55</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.55</c:v>
+                  <c:v>0.81</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -607,11 +641,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2135640792"/>
-        <c:axId val="-2134974008"/>
+        <c:axId val="-2129678248"/>
+        <c:axId val="-2129802072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2135640792"/>
+        <c:axId val="-2129678248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -621,7 +655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2134974008"/>
+        <c:crossAx val="-2129802072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -629,7 +663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134974008"/>
+        <c:axId val="-2129802072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.0"/>
@@ -641,7 +675,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2135640792"/>
+        <c:crossAx val="-2129678248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -709,6 +743,40 @@
           <c:cat>
             <c:numRef>
               <c:f>datos!$B$102:$B$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
@@ -718,34 +786,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4.2548</c:v>
+                  <c:v>4.495</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2508</c:v>
+                  <c:v>4.4688</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0524</c:v>
+                  <c:v>4.5142</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9942</c:v>
+                  <c:v>4.3974</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1748</c:v>
+                  <c:v>4.2612</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1958</c:v>
+                  <c:v>4.2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.0164</c:v>
+                  <c:v>4.1848</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0744</c:v>
+                  <c:v>4.0546</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.8386</c:v>
+                  <c:v>3.5374</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8262</c:v>
+                  <c:v>3.5158</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -762,11 +830,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2136204568"/>
-        <c:axId val="-2136734504"/>
+        <c:axId val="2147172344"/>
+        <c:axId val="2146659096"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2136204568"/>
+        <c:axId val="2147172344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +844,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136734504"/>
+        <c:crossAx val="2146659096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -784,7 +852,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2136734504"/>
+        <c:axId val="2146659096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="6.0"/>
@@ -797,7 +865,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2136204568"/>
+        <c:crossAx val="2147172344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -828,6 +896,10 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -853,11 +925,79 @@
           <c:cat>
             <c:numRef>
               <c:f>datos!$B$102:$B$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>datos!$M$81:$M$111</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3.569659394</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.581086505</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.412225747</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.237745053</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.215621754</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.242599129</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.364423134</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.348061362</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.197904551</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.174230562</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -872,11 +1012,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2137525144"/>
-        <c:axId val="-2137073304"/>
+        <c:axId val="2146697144"/>
+        <c:axId val="2146611208"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2137525144"/>
+        <c:axId val="2146697144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -886,7 +1026,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137073304"/>
+        <c:crossAx val="2146611208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -894,7 +1034,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2137073304"/>
+        <c:axId val="2146611208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="7.0"/>
@@ -907,7 +1047,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2137525144"/>
+        <c:crossAx val="2146697144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -975,6 +1115,40 @@
           <c:cat>
             <c:numRef>
               <c:f>datos!$B$102:$B$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2006.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2007.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2008.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2009.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2010.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2011.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2012.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2013.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2014.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2015.0</c:v>
+                </c:pt>
+              </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
@@ -984,34 +1158,34 @@
                 <c:formatCode>"$"#,##0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>5.605968E9</c:v>
+                  <c:v>2.52903622E10</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8055433E9</c:v>
+                  <c:v>3.0364977E10</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.3353674E9</c:v>
+                  <c:v>3.8214416E10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.295352E9</c:v>
+                  <c:v>2.31791791E10</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.13293656E10</c:v>
+                  <c:v>2.7644719E10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.348996E10</c:v>
+                  <c:v>3.1387892E10</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.23510375E10</c:v>
+                  <c:v>2.942768E10</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.57934175E10</c:v>
+                  <c:v>3.9626172E10</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.20895742E10</c:v>
+                  <c:v>3.764722E10</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.59788306E10</c:v>
+                  <c:v>3.774507E10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1028,11 +1202,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2122832344"/>
-        <c:axId val="-2133870136"/>
+        <c:axId val="-2130077848"/>
+        <c:axId val="2036559656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2122832344"/>
+        <c:axId val="-2130077848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1042,7 +1216,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133870136"/>
+        <c:crossAx val="2036559656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1050,7 +1224,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2133870136"/>
+        <c:axId val="2036559656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,7 +1235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2122832344"/>
+        <c:crossAx val="-2130077848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1528,8 +1702,8 @@
   <sheetPr filterMode="1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="O182" sqref="O182"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="N102" sqref="N102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
@@ -1592,7 +1766,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
     </row>
-    <row r="2" spans="1:24" ht="15">
+    <row r="2" spans="1:24" ht="15" hidden="1">
       <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
@@ -1644,7 +1818,7 @@
         <v>4.2548000000000004</v>
       </c>
     </row>
-    <row r="3" spans="1:24" ht="15">
+    <row r="3" spans="1:24" ht="15" hidden="1">
       <c r="A3" s="9" t="s">
         <v>16</v>
       </c>
@@ -1696,7 +1870,7 @@
         <v>4.2507999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:24" ht="15">
+    <row r="4" spans="1:24" ht="15" hidden="1">
       <c r="A4" s="9" t="s">
         <v>16</v>
       </c>
@@ -1748,7 +1922,7 @@
         <v>4.0524000000000004</v>
       </c>
     </row>
-    <row r="5" spans="1:24" ht="15">
+    <row r="5" spans="1:24" ht="15" hidden="1">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -1800,7 +1974,7 @@
         <v>3.9942000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:24" ht="15">
+    <row r="6" spans="1:24" ht="15" hidden="1">
       <c r="A6" s="9" t="s">
         <v>16</v>
       </c>
@@ -1852,7 +2026,7 @@
         <v>4.1748000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:24" ht="15">
+    <row r="7" spans="1:24" ht="15" hidden="1">
       <c r="A7" s="9" t="s">
         <v>16</v>
       </c>
@@ -1904,7 +2078,7 @@
         <v>4.1958000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:24" ht="15">
+    <row r="8" spans="1:24" ht="15" hidden="1">
       <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
@@ -1956,7 +2130,7 @@
         <v>4.0164</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="15">
+    <row r="9" spans="1:24" ht="15" hidden="1">
       <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
@@ -2008,7 +2182,7 @@
         <v>4.0743999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:24" ht="15">
+    <row r="10" spans="1:24" ht="15" hidden="1">
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
@@ -2060,7 +2234,7 @@
         <v>3.8386</v>
       </c>
     </row>
-    <row r="11" spans="1:24" ht="15">
+    <row r="11" spans="1:24" ht="15" hidden="1">
       <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
@@ -6792,7 +6966,7 @@
         <v>3.8662000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:16" ht="15" hidden="1">
+    <row r="102" spans="1:16" ht="15">
       <c r="A102" s="9" t="s">
         <v>37</v>
       </c>
@@ -6844,7 +7018,7 @@
         <v>4.4950000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:16" ht="15" hidden="1">
+    <row r="103" spans="1:16" ht="15">
       <c r="A103" s="9" t="s">
         <v>37</v>
       </c>
@@ -6896,7 +7070,7 @@
         <v>4.4687999999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:16" ht="15" hidden="1">
+    <row r="104" spans="1:16" ht="15">
       <c r="A104" s="9" t="s">
         <v>37</v>
       </c>
@@ -6948,7 +7122,7 @@
         <v>4.5141999999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:16" ht="15" hidden="1">
+    <row r="105" spans="1:16" ht="15">
       <c r="A105" s="9" t="s">
         <v>37</v>
       </c>
@@ -7000,7 +7174,7 @@
         <v>4.3974000000000002</v>
       </c>
     </row>
-    <row r="106" spans="1:16" ht="15" hidden="1">
+    <row r="106" spans="1:16" ht="15">
       <c r="A106" s="9" t="s">
         <v>37</v>
       </c>
@@ -7052,7 +7226,7 @@
         <v>4.2611999999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:16" ht="15" hidden="1">
+    <row r="107" spans="1:16" ht="15">
       <c r="A107" s="9" t="s">
         <v>37</v>
       </c>
@@ -7104,7 +7278,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="108" spans="1:16" ht="15" hidden="1">
+    <row r="108" spans="1:16" ht="15">
       <c r="A108" s="9" t="s">
         <v>37</v>
       </c>
@@ -7156,7 +7330,7 @@
         <v>4.1848000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:16" ht="15" hidden="1">
+    <row r="109" spans="1:16" ht="15">
       <c r="A109" s="9" t="s">
         <v>37</v>
       </c>
@@ -7208,7 +7382,7 @@
         <v>4.0545999999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:16" ht="15" hidden="1">
+    <row r="110" spans="1:16" ht="15">
       <c r="A110" s="9" t="s">
         <v>37</v>
       </c>
@@ -7260,7 +7434,7 @@
         <v>3.5373999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:16" ht="15" hidden="1">
+    <row r="111" spans="1:16" ht="15">
       <c r="A111" s="9" t="s">
         <v>37</v>
       </c>
@@ -13413,7 +13587,7 @@
   <autoFilter ref="A1:N181">
     <filterColumn colId="0">
       <filters>
-        <filter val="ARG"/>
+        <filter val="MEX"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -13436,7 +13610,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13492,7 +13666,7 @@
       <c r="W1" s="7"/>
       <c r="X1" s="7"/>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" ht="15">
       <c r="A2" s="9" t="s">
         <v>16</v>
       </c>
@@ -13540,7 +13714,7 @@
         <v>5605968000</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" ht="15">
       <c r="A3" s="9" t="s">
         <v>19</v>
       </c>
@@ -13588,7 +13762,7 @@
         <v>1187558832.4104998</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" ht="15">
       <c r="A4" s="9" t="s">
         <v>21</v>
       </c>
@@ -13636,7 +13810,7 @@
         <v>12627095999.999998</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" ht="15">
       <c r="A5" s="9" t="s">
         <v>23</v>
       </c>
@@ -13684,7 +13858,7 @@
         <v>4439057700</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" ht="15">
       <c r="A6" s="9" t="s">
         <v>25</v>
       </c>
@@ -13732,7 +13906,7 @@
         <v>2308778000</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" ht="15">
       <c r="A7" s="9" t="s">
         <v>27</v>
       </c>
@@ -13780,7 +13954,7 @@
         <v>203403886.90200001</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" ht="15">
       <c r="A8" s="9" t="s">
         <v>29</v>
       </c>
@@ -13828,7 +14002,7 @@
         <v>1100157074.8398001</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" ht="15">
       <c r="A9" s="9" t="s">
         <v>31</v>
       </c>
@@ -13876,7 +14050,7 @@
         <v>1670832970.7999997</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" ht="15">
       <c r="A10" s="9" t="s">
         <v>33</v>
       </c>
@@ -13924,7 +14098,7 @@
         <v>1590158051.7368</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" ht="15">
       <c r="A11" s="9" t="s">
         <v>35</v>
       </c>
@@ -13972,7 +14146,7 @@
         <v>362113560.02359998</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" ht="15">
       <c r="A12" s="9" t="s">
         <v>37</v>
       </c>
@@ -14020,7 +14194,7 @@
         <v>25290362200</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" ht="15">
       <c r="A13" s="9" t="s">
         <v>39</v>
       </c>
@@ -14068,7 +14242,7 @@
         <v>363066763.07950002</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" ht="15">
       <c r="A14" s="9" t="s">
         <v>41</v>
       </c>
@@ -14116,7 +14290,7 @@
         <v>433585824.6178</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" ht="15">
       <c r="A15" s="9" t="s">
         <v>43</v>
       </c>
@@ -14164,7 +14338,7 @@
         <v>1826049777.0771999</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" ht="15">
       <c r="A16" s="9" t="s">
         <v>46</v>
       </c>
@@ -14212,7 +14386,7 @@
         <v>371550911.40799999</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" ht="15">
       <c r="A17" s="9" t="s">
         <v>48</v>
       </c>
@@ -14260,7 +14434,7 @@
         <v>495303689.99999994</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" ht="15">
       <c r="A18" s="9" t="s">
         <v>50</v>
       </c>
@@ -14308,7 +14482,7 @@
         <v>276070357.32059997</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" ht="15">
       <c r="A19" s="9" t="s">
         <v>52</v>
       </c>
@@ -14356,7 +14530,7 @@
         <v>12274678200</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" ht="15">
       <c r="A20" s="9" t="s">
         <v>16</v>
       </c>
@@ -14404,7 +14578,7 @@
         <v>5805543299.999999</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" ht="15">
       <c r="A21" s="9" t="s">
         <v>19</v>
       </c>
@@ -14452,7 +14626,7 @@
         <v>1541618797.1799998</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" ht="15">
       <c r="A22" s="9" t="s">
         <v>21</v>
       </c>
@@ -14500,7 +14674,7 @@
         <v>16764960000</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" ht="15">
       <c r="A23" s="9" t="s">
         <v>23</v>
       </c>
@@ -14548,7 +14722,7 @@
         <v>5313586700</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" ht="15">
       <c r="A24" s="9" t="s">
         <v>25</v>
       </c>
@@ -14596,7 +14770,7 @@
         <v>4003128799.9999995</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" ht="15">
       <c r="A25" s="9" t="s">
         <v>27</v>
       </c>
@@ -14644,7 +14818,7 @@
         <v>339647203.44489998</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" ht="15">
       <c r="A26" s="9" t="s">
         <v>29</v>
       </c>
@@ -14692,7 +14866,7 @@
         <v>1713783512.3364</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" ht="15">
       <c r="A27" s="9" t="s">
         <v>31</v>
       </c>
@@ -14740,7 +14914,7 @@
         <v>2626900515.5</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" ht="15">
       <c r="A28" s="9" t="s">
         <v>33</v>
       </c>
@@ -14788,7 +14962,7 @@
         <v>1640840206.9215</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" ht="15">
       <c r="A29" s="9" t="s">
         <v>35</v>
       </c>
@@ -14836,7 +15010,7 @@
         <v>504522801.71490008</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" ht="15">
       <c r="A30" s="9" t="s">
         <v>37</v>
       </c>
@@ -14884,7 +15058,7 @@
         <v>30364977000</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" ht="15">
       <c r="A31" s="9" t="s">
         <v>39</v>
       </c>
@@ -14932,7 +15106,7 @@
         <v>387075564.4878</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" ht="15">
       <c r="A32" s="9" t="s">
         <v>41</v>
       </c>
@@ -14980,7 +15154,7 @@
         <v>798000000</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" ht="15">
       <c r="A33" s="9" t="s">
         <v>43</v>
       </c>
@@ -15028,7 +15202,7 @@
         <v>2309064600</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" ht="15">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
@@ -15076,7 +15250,7 @@
         <v>429021720.71740001</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" ht="15">
       <c r="A35" s="9" t="s">
         <v>48</v>
       </c>
@@ -15124,7 +15298,7 @@
         <v>530769360</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" ht="15">
       <c r="A36" s="9" t="s">
         <v>50</v>
       </c>
@@ -15172,7 +15346,7 @@
         <v>362863875.82700002</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" ht="15">
       <c r="A37" s="9" t="s">
         <v>52</v>
       </c>
@@ -15220,7 +15394,7 @@
         <v>13338075600</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" ht="15">
       <c r="A38" s="9" t="s">
         <v>16</v>
       </c>
@@ -15268,7 +15442,7 @@
         <v>7335367400</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" ht="15">
       <c r="A39" s="9" t="s">
         <v>19</v>
       </c>
@@ -15316,7 +15490,7 @@
         <v>1822507246.2226999</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" ht="15">
       <c r="A40" s="9" t="s">
         <v>21</v>
       </c>
@@ -15364,7 +15538,7 @@
         <v>18993184000.000004</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" ht="15">
       <c r="A41" s="9" t="s">
         <v>23</v>
       </c>
@@ -15412,7 +15586,7 @@
         <v>6484534700</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" ht="15">
       <c r="A42" s="9" t="s">
         <v>25</v>
       </c>
@@ -15460,7 +15634,7 @@
         <v>5294409400</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" ht="15">
       <c r="A43" s="9" t="s">
         <v>27</v>
       </c>
@@ -15508,7 +15682,7 @@
         <v>523481150.93130004</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" ht="15">
       <c r="A44" s="9" t="s">
         <v>29</v>
       </c>
@@ -15556,7 +15730,7 @@
         <v>2351672707.6560998</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" ht="15">
       <c r="A45" s="9" t="s">
         <v>31</v>
       </c>
@@ -15604,7 +15778,7 @@
         <v>5929212960</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" ht="15">
       <c r="A46" s="9" t="s">
         <v>33</v>
       </c>
@@ -15652,7 +15826,7 @@
         <v>1749430951.5590999</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" ht="15">
       <c r="A47" s="9" t="s">
         <v>35</v>
       </c>
@@ -15700,7 +15874,7 @@
         <v>663285878.801</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" ht="15">
       <c r="A48" s="9" t="s">
         <v>37</v>
       </c>
@@ -15748,7 +15922,7 @@
         <v>38214416000</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" ht="15">
       <c r="A49" s="9" t="s">
         <v>39</v>
       </c>
@@ -15796,7 +15970,7 @@
         <v>360034882.10960001</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" ht="15">
       <c r="A50" s="9" t="s">
         <v>41</v>
       </c>
@@ -15844,7 +16018,7 @@
         <v>1292319940</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" ht="15">
       <c r="A51" s="9" t="s">
         <v>43</v>
       </c>
@@ -15892,7 +16066,7 @@
         <v>3037885200</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" ht="15">
       <c r="A52" s="9" t="s">
         <v>46</v>
       </c>
@@ -15940,7 +16114,7 @@
         <v>453351203.44850004</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" ht="15">
       <c r="A53" s="9" t="s">
         <v>48</v>
       </c>
@@ -15988,7 +16162,7 @@
         <v>603480000</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" ht="15">
       <c r="A54" s="9" t="s">
         <v>50</v>
       </c>
@@ -16036,7 +16210,7 @@
         <v>555701700.07770002</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" ht="15">
       <c r="A55" s="9" t="s">
         <v>52</v>
       </c>
@@ -16084,7 +16258,7 @@
         <v>18083880000</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" ht="15">
       <c r="A56" s="9" t="s">
         <v>16</v>
       </c>
@@ -16132,7 +16306,7 @@
         <v>8295352000</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" ht="15">
       <c r="A57" s="9" t="s">
         <v>19</v>
       </c>
@@ -16180,7 +16354,7 @@
         <v>2080803418.8</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" ht="15">
       <c r="A58" s="9" t="s">
         <v>21</v>
       </c>
@@ -16228,7 +16402,7 @@
         <v>19837538000</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" ht="15">
       <c r="A59" s="9" t="s">
         <v>23</v>
       </c>
@@ -16276,7 +16450,7 @@
         <v>7634890800</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" ht="15">
       <c r="A60" s="9" t="s">
         <v>25</v>
       </c>
@@ -16324,7 +16498,7 @@
         <v>5260995000</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" ht="15">
       <c r="A61" s="9" t="s">
         <v>27</v>
       </c>
@@ -16372,7 +16546,7 @@
         <v>531785084.04479998</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" ht="15">
       <c r="A62" s="9" t="s">
         <v>29</v>
       </c>
@@ -16420,7 +16594,7 @@
         <v>1673828813.5876</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" ht="15">
       <c r="A63" s="9" t="s">
         <v>31</v>
       </c>
@@ -16468,7 +16642,7 @@
         <v>5282913466.999999</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" ht="15">
       <c r="A64" s="9" t="s">
         <v>33</v>
       </c>
@@ -16516,7 +16690,7 @@
         <v>1535767776.5221</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" ht="15">
       <c r="A65" s="9" t="s">
         <v>35</v>
       </c>
@@ -16564,7 +16738,7 @@
         <v>743138849.33819997</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" ht="15">
       <c r="A66" s="9" t="s">
         <v>37</v>
       </c>
@@ -16612,7 +16786,7 @@
         <v>23179179100</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" ht="15">
       <c r="A67" s="9" t="s">
         <v>39</v>
       </c>
@@ -16660,7 +16834,7 @@
         <v>326848543.31999999</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" ht="15">
       <c r="A68" s="9" t="s">
         <v>41</v>
       </c>
@@ -16708,7 +16882,7 @@
         <v>1531785600</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" ht="15">
       <c r="A69" s="9" t="s">
         <v>43</v>
       </c>
@@ -16756,7 +16930,7 @@
         <v>4796673100</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" ht="15">
       <c r="A70" s="9" t="s">
         <v>46</v>
       </c>
@@ -16804,7 +16978,7 @@
         <v>641975056.16140008</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" ht="15">
       <c r="A71" s="9" t="s">
         <v>48</v>
       </c>
@@ -16852,7 +17026,7 @@
         <v>604440000</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" ht="15">
       <c r="A72" s="9" t="s">
         <v>50</v>
       </c>
@@ -16900,7 +17074,7 @@
         <v>497076307.04890007</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" ht="15">
       <c r="A73" s="9" t="s">
         <v>52</v>
       </c>
@@ -16948,7 +17122,7 @@
         <v>17788626000.000004</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" ht="15">
       <c r="A74" s="9" t="s">
         <v>16</v>
       </c>
@@ -16996,7 +17170,7 @@
         <v>11329365600</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" ht="15">
       <c r="A75" s="9" t="s">
         <v>19</v>
       </c>
@@ -17044,7 +17218,7 @@
         <v>1949249533.2991998</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" ht="15">
       <c r="A76" s="9" t="s">
         <v>21</v>
       </c>
@@ -17092,7 +17266,7 @@
         <v>54779976000</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" ht="15">
       <c r="A77" s="9" t="s">
         <v>23</v>
       </c>
@@ -17140,7 +17314,7 @@
         <v>8570997199.999999</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" ht="15">
       <c r="A78" s="9" t="s">
         <v>25</v>
       </c>
@@ -17188,7 +17362,7 @@
         <v>5969974400</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" ht="15">
       <c r="A79" s="9" t="s">
         <v>27</v>
       </c>
@@ -17236,7 +17410,7 @@
         <v>842271158.43539989</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" ht="15">
       <c r="A80" s="9" t="s">
         <v>29</v>
       </c>
@@ -17284,7 +17458,7 @@
         <v>1915387554.6419997</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" ht="15">
       <c r="A81" s="9" t="s">
         <v>31</v>
       </c>
@@ -17332,7 +17506,7 @@
         <v>6433871447.5</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" ht="15">
       <c r="A82" s="9" t="s">
         <v>33</v>
       </c>
@@ -17380,7 +17554,7 @@
         <v>1703139624.7272</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" ht="15">
       <c r="A83" s="9" t="s">
         <v>35</v>
       </c>
@@ -17428,7 +17602,7 @@
         <v>588288719.2974</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" ht="15">
       <c r="A84" s="9" t="s">
         <v>37</v>
       </c>
@@ -17476,7 +17650,7 @@
         <v>27644719000</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" ht="15">
       <c r="A85" s="9" t="s">
         <v>39</v>
       </c>
@@ -17524,7 +17698,7 @@
         <v>338288818.51800001</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" ht="15">
       <c r="A86" s="9" t="s">
         <v>41</v>
       </c>
@@ -17572,7 +17746,7 @@
         <v>1977936480</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" ht="15">
       <c r="A87" s="9" t="s">
         <v>43</v>
       </c>
@@ -17620,7 +17794,7 @@
         <v>6696136800</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" ht="15">
       <c r="A88" s="9" t="s">
         <v>46</v>
       </c>
@@ -17668,7 +17842,7 @@
         <v>661007425.41900003</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" ht="15">
       <c r="A89" s="9" t="s">
         <v>48</v>
       </c>
@@ -17716,7 +17890,7 @@
         <v>683243770</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" ht="15">
       <c r="A90" s="9" t="s">
         <v>50</v>
       </c>
@@ -17764,7 +17938,7 @@
         <v>672754197.41600001</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" ht="15">
       <c r="A91" s="9" t="s">
         <v>52</v>
       </c>
@@ -17812,7 +17986,7 @@
         <v>11223328500</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" ht="15">
       <c r="A92" s="9" t="s">
         <v>16</v>
       </c>
@@ -17860,7 +18034,7 @@
         <v>13489960000</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" ht="15">
       <c r="A93" s="9" t="s">
         <v>19</v>
       </c>
@@ -17908,7 +18082,7 @@
         <v>2897138359.4751</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" ht="15">
       <c r="A94" s="9" t="s">
         <v>21</v>
       </c>
@@ -17956,7 +18130,7 @@
         <v>37911265000</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" ht="15">
       <c r="A95" s="9" t="s">
         <v>23</v>
       </c>
@@ -18004,7 +18178,7 @@
         <v>10259028800</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" ht="15">
       <c r="A96" s="9" t="s">
         <v>25</v>
       </c>
@@ -18052,7 +18226,7 @@
         <v>8083501500</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" ht="15">
       <c r="A97" s="9" t="s">
         <v>27</v>
       </c>
@@ -18100,7 +18274,7 @@
         <v>600130309.52679992</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" ht="15">
       <c r="A98" s="9" t="s">
         <v>29</v>
       </c>
@@ -18148,7 +18322,7 @@
         <v>1784372561.7722998</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" ht="15">
       <c r="A99" s="9" t="s">
         <v>31</v>
       </c>
@@ -18196,7 +18370,7 @@
         <v>8038653729.6000004</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" ht="15">
       <c r="A100" s="9" t="s">
         <v>33</v>
       </c>
@@ -18244,7 +18418,7 @@
         <v>1891891780.0439</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" ht="15">
       <c r="A101" s="9" t="s">
         <v>35</v>
       </c>
@@ -18292,7 +18466,7 @@
         <v>812570088.32999992</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" ht="15">
       <c r="A102" s="9" t="s">
         <v>37</v>
       </c>
@@ -18340,7 +18514,7 @@
         <v>31387892000</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" ht="15">
       <c r="A103" s="9" t="s">
         <v>39</v>
       </c>
@@ -18388,7 +18562,7 @@
         <v>341446691.60000002</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" ht="15">
       <c r="A104" s="9" t="s">
         <v>41</v>
       </c>
@@ -18436,7 +18610,7 @@
         <v>2512726277.4534998</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" ht="15">
       <c r="A105" s="9" t="s">
         <v>43</v>
       </c>
@@ -18484,7 +18658,7 @@
         <v>7401304400</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" ht="15">
       <c r="A106" s="9" t="s">
         <v>46</v>
       </c>
@@ -18532,7 +18706,7 @@
         <v>946257991.07969999</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" ht="15">
       <c r="A107" s="9" t="s">
         <v>48</v>
       </c>
@@ -18580,7 +18754,7 @@
         <v>716100000</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" ht="15">
       <c r="A108" s="9" t="s">
         <v>50</v>
       </c>
@@ -18628,7 +18802,7 @@
         <v>705047857.76880002</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" ht="15">
       <c r="A109" s="9" t="s">
         <v>52</v>
       </c>
@@ -18676,7 +18850,7 @@
         <v>20444737200</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" ht="15">
       <c r="A110" s="9" t="s">
         <v>16</v>
       </c>
@@ -18724,7 +18898,7 @@
         <v>12351037500</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" ht="15">
       <c r="A111" s="9" t="s">
         <v>19</v>
       </c>
@@ -18772,7 +18946,7 @@
         <v>2925127641.0600004</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" ht="15">
       <c r="A112" s="9" t="s">
         <v>21</v>
       </c>
@@ -18820,7 +18994,7 @@
         <v>36417768000</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" ht="15">
       <c r="A113" s="9" t="s">
         <v>23</v>
       </c>
@@ -18868,7 +19042,7 @@
         <v>10609280000</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" ht="15">
       <c r="A114" s="9" t="s">
         <v>25</v>
       </c>
@@ -18916,7 +19090,7 @@
         <v>10424412000</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" ht="15">
       <c r="A115" s="9" t="s">
         <v>27</v>
       </c>
@@ -18964,7 +19138,7 @@
         <v>659918420.96539998</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" ht="15">
       <c r="A116" s="9" t="s">
         <v>29</v>
       </c>
@@ -19012,7 +19186,7 @@
         <v>3388302762.2638998</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" ht="15">
       <c r="A117" s="9" t="s">
         <v>31</v>
       </c>
@@ -19060,7 +19234,7 @@
         <v>9240869574.3999996</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" ht="15">
       <c r="A118" s="9" t="s">
         <v>33</v>
       </c>
@@ -19108,7 +19282,7 @@
         <v>1662817799.247</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" ht="15">
       <c r="A119" s="9" t="s">
         <v>35</v>
       </c>
@@ -19156,7 +19330,7 @@
         <v>848264846.51700008</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" ht="15">
       <c r="A120" s="9" t="s">
         <v>37</v>
       </c>
@@ -19204,7 +19378,7 @@
         <v>29427680000</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" ht="15">
       <c r="A121" s="9" t="s">
         <v>39</v>
       </c>
@@ -19252,7 +19426,7 @@
         <v>390412695.13840002</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" ht="15">
       <c r="A122" s="9" t="s">
         <v>41</v>
       </c>
@@ -19300,7 +19474,7 @@
         <v>2956652331.2420006</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" ht="15">
       <c r="A123" s="9" t="s">
         <v>43</v>
       </c>
@@ -19348,7 +19522,7 @@
         <v>8493880500</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" ht="15">
       <c r="A124" s="9" t="s">
         <v>46</v>
       </c>
@@ -19396,7 +19570,7 @@
         <v>1148601424.1057999</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" ht="15">
       <c r="A125" s="9" t="s">
         <v>48</v>
       </c>
@@ -19444,7 +19618,7 @@
         <v>788230159.99999988</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" ht="15">
       <c r="A126" s="9" t="s">
         <v>50</v>
       </c>
@@ -19492,7 +19666,7 @@
         <v>743348296.30249989</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" ht="15">
       <c r="A127" s="9" t="s">
         <v>52</v>
       </c>
@@ -19540,7 +19714,7 @@
         <v>18187342199.999996</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" ht="15">
       <c r="A128" s="9" t="s">
         <v>16</v>
       </c>
@@ -19588,7 +19762,7 @@
         <v>15793417500</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" ht="15">
       <c r="A129" s="9" t="s">
         <v>19</v>
       </c>
@@ -19636,7 +19810,7 @@
         <v>4148207930.5194001</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" ht="15">
       <c r="A130" s="9" t="s">
         <v>21</v>
       </c>
@@ -19684,7 +19858,7 @@
         <v>37972858000</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" ht="15">
       <c r="A131" s="9" t="s">
         <v>23</v>
       </c>
@@ -19732,7 +19906,7 @@
         <v>10141091400</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" ht="15">
       <c r="A132" s="9" t="s">
         <v>25</v>
       </c>
@@ -19780,7 +19954,7 @@
         <v>11976048000</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" ht="15">
       <c r="A133" s="9" t="s">
         <v>27</v>
       </c>
@@ -19828,7 +20002,7 @@
         <v>799199781.38139999</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" ht="15">
       <c r="A134" s="9" t="s">
         <v>29</v>
       </c>
@@ -19876,7 +20050,7 @@
         <v>2020089711.0581999</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" ht="15">
       <c r="A135" s="9" t="s">
         <v>31</v>
       </c>
@@ -19924,7 +20098,7 @@
         <v>11586792466.199999</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" ht="15">
       <c r="A136" s="9" t="s">
         <v>33</v>
       </c>
@@ -19972,7 +20146,7 @@
         <v>1615532265.1199999</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" ht="15">
       <c r="A137" s="9" t="s">
         <v>35</v>
       </c>
@@ -20020,7 +20194,7 @@
         <v>960864679.85530007</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" ht="15">
       <c r="A138" s="9" t="s">
         <v>37</v>
       </c>
@@ -20068,7 +20242,7 @@
         <v>39626172000.000008</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" ht="15">
       <c r="A139" s="9" t="s">
         <v>39</v>
       </c>
@@ -20116,7 +20290,7 @@
         <v>417589828.26239997</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" ht="15">
       <c r="A140" s="9" t="s">
         <v>41</v>
       </c>
@@ -20164,7 +20338,7 @@
         <v>3817261725.9393997</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" ht="15">
       <c r="A141" s="9" t="s">
         <v>43</v>
       </c>
@@ -20212,7 +20386,7 @@
         <v>9494327200</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" ht="15">
       <c r="A142" s="9" t="s">
         <v>46</v>
       </c>
@@ -20260,7 +20434,7 @@
         <v>1092014675.1253998</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" ht="15">
       <c r="A143" s="9" t="s">
         <v>48</v>
       </c>
@@ -20308,7 +20482,7 @@
         <v>730527000</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" ht="15">
       <c r="A144" s="9" t="s">
         <v>50</v>
       </c>
@@ -20356,7 +20530,7 @@
         <v>811190390.24909997</v>
       </c>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" ht="15">
       <c r="A145" s="9" t="s">
         <v>52</v>
       </c>
@@ -20404,7 +20578,7 @@
         <v>20534936100</v>
       </c>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" ht="15">
       <c r="A146" s="9" t="s">
         <v>16</v>
       </c>
@@ -20452,7 +20626,7 @@
         <v>22089574200</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" ht="15">
       <c r="A147" s="9" t="s">
         <v>19</v>
       </c>
@@ -20500,7 +20674,7 @@
         <v>5480675021.6757002</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" ht="15">
       <c r="A148" s="9" t="s">
         <v>21</v>
       </c>
@@ -20548,7 +20722,7 @@
         <v>40848144999.999992</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" ht="15">
       <c r="A149" s="9" t="s">
         <v>23</v>
       </c>
@@ -20596,7 +20770,7 @@
         <v>9883600600</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" ht="15">
       <c r="A150" s="9" t="s">
         <v>25</v>
       </c>
@@ -20644,7 +20818,7 @@
         <v>11352480000</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" ht="15">
       <c r="A151" s="9" t="s">
         <v>27</v>
       </c>
@@ -20692,7 +20866,7 @@
         <v>862883120.58800006</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" ht="15">
       <c r="A152" s="9" t="s">
         <v>29</v>
       </c>
@@ -20740,7 +20914,7 @@
         <v>1754714768.9507</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" ht="15">
       <c r="A153" s="9" t="s">
         <v>31</v>
       </c>
@@ -20788,7 +20962,7 @@
         <v>11814726000</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" ht="15">
       <c r="A154" s="9" t="s">
         <v>33</v>
       </c>
@@ -20836,7 +21010,7 @@
         <v>1726429369.3248</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" ht="15">
       <c r="A155" s="9" t="s">
         <v>35</v>
       </c>
@@ -20884,7 +21058,7 @@
         <v>1005871759.5921</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" ht="15">
       <c r="A156" s="9" t="s">
         <v>37</v>
       </c>
@@ -20932,7 +21106,7 @@
         <v>37647220000</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" ht="15">
       <c r="A157" s="9" t="s">
         <v>39</v>
       </c>
@@ -20980,7 +21154,7 @@
         <v>476324958.94239998</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" ht="15">
       <c r="A158" s="9" t="s">
         <v>41</v>
       </c>
@@ -21028,7 +21202,7 @@
         <v>3358022301.2957001</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" ht="15">
       <c r="A159" s="9" t="s">
         <v>43</v>
       </c>
@@ -21076,7 +21250,7 @@
         <v>9729416400</v>
       </c>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" ht="15">
       <c r="A160" s="9" t="s">
         <v>46</v>
       </c>
@@ -21124,7 +21298,7 @@
         <v>1127162590.0979998</v>
       </c>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" ht="15">
       <c r="A161" s="9" t="s">
         <v>48</v>
       </c>
@@ -21172,7 +21346,7 @@
         <v>694001340</v>
       </c>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" ht="15">
       <c r="A162" s="9" t="s">
         <v>50</v>
       </c>
@@ -21220,7 +21394,7 @@
         <v>795577158.86749995</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" ht="15">
       <c r="A163" s="9" t="s">
         <v>52</v>
       </c>
@@ -21268,7 +21442,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" ht="15">
       <c r="A164" s="9" t="s">
         <v>16</v>
       </c>
@@ -21316,7 +21490,7 @@
         <v>15978830600</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" ht="15">
       <c r="A165" s="9" t="s">
         <v>19</v>
       </c>
@@ -21364,7 +21538,7 @@
         <v>4537181620.8125</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" ht="15">
       <c r="A166" s="9" t="s">
         <v>21</v>
       </c>
@@ -21412,7 +21586,7 @@
         <v>34961984000</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" ht="15">
       <c r="A167" s="9" t="s">
         <v>23</v>
       </c>
@@ -21460,7 +21634,7 @@
         <v>10330148400</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" ht="15">
       <c r="A168" s="9" t="s">
         <v>25</v>
       </c>
@@ -21508,7 +21682,7 @@
         <v>8762400000</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" ht="15">
       <c r="A169" s="9" t="s">
         <v>27</v>
       </c>
@@ -21556,7 +21730,7 @@
         <v>985290380.4562</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" ht="15">
       <c r="A170" s="9" t="s">
         <v>29</v>
       </c>
@@ -21604,7 +21778,7 @@
         <v>1913683568.3852</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" ht="15">
       <c r="A171" s="9" t="s">
         <v>31</v>
       </c>
@@ -21652,7 +21826,7 @@
         <v>9667080500</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" ht="15">
       <c r="A172" s="9" t="s">
         <v>33</v>
       </c>
@@ -21700,7 +21874,7 @@
         <v>1390712532.9147999</v>
       </c>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" ht="15">
       <c r="A173" s="9" t="s">
         <v>35</v>
       </c>
@@ -21748,7 +21922,7 @@
         <v>967953842.86260009</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" ht="15">
       <c r="A174" s="9" t="s">
         <v>37</v>
       </c>
@@ -21796,7 +21970,7 @@
         <v>37745070000</v>
       </c>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" ht="15">
       <c r="A175" s="9" t="s">
         <v>39</v>
       </c>
@@ -21844,7 +22018,7 @@
         <v>572434554.63370001</v>
       </c>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" ht="15">
       <c r="A176" s="9" t="s">
         <v>41</v>
       </c>
@@ -21892,7 +22066,7 @@
         <v>3258268109.1875</v>
       </c>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:15" ht="15">
       <c r="A177" s="9" t="s">
         <v>43</v>
       </c>
@@ -21940,7 +22114,7 @@
         <v>9209705700</v>
       </c>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:15" ht="15">
       <c r="A178" s="9" t="s">
         <v>46</v>
       </c>
@@ -21988,7 +22162,7 @@
         <v>1116270271.1028001</v>
       </c>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" ht="15">
       <c r="A179" s="9" t="s">
         <v>48</v>
       </c>
@@ -22036,7 +22210,7 @@
         <v>677275240</v>
       </c>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:15" ht="15">
       <c r="A180" s="9" t="s">
         <v>50</v>
       </c>
@@ -22084,7 +22258,7 @@
         <v>657345180.09870005</v>
       </c>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" ht="15">
       <c r="A181" s="9" t="s">
         <v>52</v>
       </c>
@@ -24631,7 +24805,7 @@
     <col min="20" max="20" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:24" ht="15">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -24659,7 +24833,7 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" ht="15">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -24723,7 +24897,7 @@
       <c r="W2" s="10"/>
       <c r="X2" s="15"/>
     </row>
-    <row r="3" spans="1:24" hidden="1">
+    <row r="3" spans="1:24" ht="15" hidden="1">
       <c r="A3" s="16" t="s">
         <v>16</v>
       </c>
@@ -24795,7 +24969,7 @@
       <c r="W3" s="19"/>
       <c r="X3" s="21"/>
     </row>
-    <row r="4" spans="1:24" hidden="1">
+    <row r="4" spans="1:24" ht="15" hidden="1">
       <c r="A4" s="22" t="s">
         <v>19</v>
       </c>
@@ -24863,7 +25037,7 @@
       </c>
       <c r="X4" s="25"/>
     </row>
-    <row r="5" spans="1:24" hidden="1">
+    <row r="5" spans="1:24" ht="15" hidden="1">
       <c r="A5" s="22" t="s">
         <v>21</v>
       </c>
@@ -24931,7 +25105,7 @@
       </c>
       <c r="X5" s="25"/>
     </row>
-    <row r="6" spans="1:24" hidden="1">
+    <row r="6" spans="1:24" ht="15" hidden="1">
       <c r="A6" s="22" t="s">
         <v>23</v>
       </c>
@@ -24999,7 +25173,7 @@
       </c>
       <c r="X6" s="25"/>
     </row>
-    <row r="7" spans="1:24" hidden="1">
+    <row r="7" spans="1:24" ht="15" hidden="1">
       <c r="A7" s="22" t="s">
         <v>25</v>
       </c>
@@ -25067,7 +25241,7 @@
       </c>
       <c r="X7" s="25"/>
     </row>
-    <row r="8" spans="1:24" hidden="1">
+    <row r="8" spans="1:24" ht="15" hidden="1">
       <c r="A8" s="22" t="s">
         <v>27</v>
       </c>
@@ -25135,7 +25309,7 @@
       </c>
       <c r="X8" s="25"/>
     </row>
-    <row r="9" spans="1:24" hidden="1">
+    <row r="9" spans="1:24" ht="15" hidden="1">
       <c r="A9" s="22" t="s">
         <v>29</v>
       </c>
@@ -25203,7 +25377,7 @@
       </c>
       <c r="X9" s="25"/>
     </row>
-    <row r="10" spans="1:24" hidden="1">
+    <row r="10" spans="1:24" ht="15" hidden="1">
       <c r="A10" s="22" t="s">
         <v>31</v>
       </c>
@@ -25271,7 +25445,7 @@
       </c>
       <c r="X10" s="25"/>
     </row>
-    <row r="11" spans="1:24" hidden="1">
+    <row r="11" spans="1:24" ht="15" hidden="1">
       <c r="A11" s="22" t="s">
         <v>33</v>
       </c>
@@ -25339,7 +25513,7 @@
       </c>
       <c r="X11" s="25"/>
     </row>
-    <row r="12" spans="1:24" hidden="1">
+    <row r="12" spans="1:24" ht="15" hidden="1">
       <c r="A12" s="22" t="s">
         <v>35</v>
       </c>
@@ -25407,7 +25581,7 @@
       </c>
       <c r="X12" s="25"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" ht="15">
       <c r="A13" s="22" t="s">
         <v>37</v>
       </c>
@@ -25475,7 +25649,7 @@
       </c>
       <c r="X13" s="25"/>
     </row>
-    <row r="14" spans="1:24" hidden="1">
+    <row r="14" spans="1:24" ht="15" hidden="1">
       <c r="A14" s="22" t="s">
         <v>39</v>
       </c>
@@ -25543,7 +25717,7 @@
       </c>
       <c r="X14" s="25"/>
     </row>
-    <row r="15" spans="1:24" hidden="1">
+    <row r="15" spans="1:24" ht="15" hidden="1">
       <c r="A15" s="22" t="s">
         <v>41</v>
       </c>
@@ -25611,7 +25785,7 @@
       </c>
       <c r="X15" s="25"/>
     </row>
-    <row r="16" spans="1:24" hidden="1">
+    <row r="16" spans="1:24" ht="15" hidden="1">
       <c r="A16" s="22" t="s">
         <v>43</v>
       </c>
@@ -25679,7 +25853,7 @@
       </c>
       <c r="X16" s="25"/>
     </row>
-    <row r="17" spans="1:24" hidden="1">
+    <row r="17" spans="1:24" ht="15" hidden="1">
       <c r="A17" s="22" t="s">
         <v>46</v>
       </c>
@@ -25747,7 +25921,7 @@
       </c>
       <c r="X17" s="25"/>
     </row>
-    <row r="18" spans="1:24" hidden="1">
+    <row r="18" spans="1:24" ht="15" hidden="1">
       <c r="A18" s="22" t="s">
         <v>48</v>
       </c>
@@ -25815,7 +25989,7 @@
       </c>
       <c r="X18" s="25"/>
     </row>
-    <row r="19" spans="1:24" hidden="1">
+    <row r="19" spans="1:24" ht="15" hidden="1">
       <c r="A19" s="22" t="s">
         <v>50</v>
       </c>
@@ -25883,7 +26057,7 @@
       </c>
       <c r="X19" s="25"/>
     </row>
-    <row r="20" spans="1:24" hidden="1">
+    <row r="20" spans="1:24" ht="15" hidden="1">
       <c r="A20" s="26" t="s">
         <v>52</v>
       </c>
@@ -25955,7 +26129,7 @@
       <c r="W20" s="29"/>
       <c r="X20" s="31"/>
     </row>
-    <row r="21" spans="1:24" hidden="1">
+    <row r="21" spans="1:24" ht="15" hidden="1">
       <c r="A21" s="16" t="s">
         <v>16</v>
       </c>
@@ -26027,7 +26201,7 @@
       <c r="W21" s="19"/>
       <c r="X21" s="21"/>
     </row>
-    <row r="22" spans="1:24" hidden="1">
+    <row r="22" spans="1:24" ht="15" hidden="1">
       <c r="A22" s="22" t="s">
         <v>19</v>
       </c>
@@ -26095,7 +26269,7 @@
       </c>
       <c r="X22" s="25"/>
     </row>
-    <row r="23" spans="1:24" hidden="1">
+    <row r="23" spans="1:24" ht="15" hidden="1">
       <c r="A23" s="22" t="s">
         <v>21</v>
       </c>
@@ -26163,7 +26337,7 @@
       </c>
       <c r="X23" s="25"/>
     </row>
-    <row r="24" spans="1:24" hidden="1">
+    <row r="24" spans="1:24" ht="15" hidden="1">
       <c r="A24" s="22" t="s">
         <v>23</v>
       </c>
@@ -26231,7 +26405,7 @@
       </c>
       <c r="X24" s="25"/>
     </row>
-    <row r="25" spans="1:24" hidden="1">
+    <row r="25" spans="1:24" ht="15" hidden="1">
       <c r="A25" s="22" t="s">
         <v>25</v>
       </c>
@@ -26299,7 +26473,7 @@
       </c>
       <c r="X25" s="25"/>
     </row>
-    <row r="26" spans="1:24" hidden="1">
+    <row r="26" spans="1:24" ht="15" hidden="1">
       <c r="A26" s="22" t="s">
         <v>27</v>
       </c>
@@ -26367,7 +26541,7 @@
       </c>
       <c r="X26" s="25"/>
     </row>
-    <row r="27" spans="1:24" hidden="1">
+    <row r="27" spans="1:24" ht="15" hidden="1">
       <c r="A27" s="22" t="s">
         <v>29</v>
       </c>
@@ -26435,7 +26609,7 @@
       </c>
       <c r="X27" s="25"/>
     </row>
-    <row r="28" spans="1:24" hidden="1">
+    <row r="28" spans="1:24" ht="15" hidden="1">
       <c r="A28" s="22" t="s">
         <v>31</v>
       </c>
@@ -26503,7 +26677,7 @@
       </c>
       <c r="X28" s="25"/>
     </row>
-    <row r="29" spans="1:24" hidden="1">
+    <row r="29" spans="1:24" ht="15" hidden="1">
       <c r="A29" s="22" t="s">
         <v>33</v>
       </c>
@@ -26571,7 +26745,7 @@
       </c>
       <c r="X29" s="25"/>
     </row>
-    <row r="30" spans="1:24" hidden="1">
+    <row r="30" spans="1:24" ht="15" hidden="1">
       <c r="A30" s="22" t="s">
         <v>35</v>
       </c>
@@ -26639,7 +26813,7 @@
       </c>
       <c r="X30" s="25"/>
     </row>
-    <row r="31" spans="1:24">
+    <row r="31" spans="1:24" ht="15">
       <c r="A31" s="22" t="s">
         <v>37</v>
       </c>
@@ -26707,7 +26881,7 @@
       </c>
       <c r="X31" s="25"/>
     </row>
-    <row r="32" spans="1:24" hidden="1">
+    <row r="32" spans="1:24" ht="15" hidden="1">
       <c r="A32" s="22" t="s">
         <v>39</v>
       </c>
@@ -26775,7 +26949,7 @@
       </c>
       <c r="X32" s="25"/>
     </row>
-    <row r="33" spans="1:24" hidden="1">
+    <row r="33" spans="1:24" ht="15" hidden="1">
       <c r="A33" s="22" t="s">
         <v>41</v>
       </c>
@@ -26843,7 +27017,7 @@
       </c>
       <c r="X33" s="25"/>
     </row>
-    <row r="34" spans="1:24" hidden="1">
+    <row r="34" spans="1:24" ht="15" hidden="1">
       <c r="A34" s="22" t="s">
         <v>43</v>
       </c>
@@ -26911,7 +27085,7 @@
       </c>
       <c r="X34" s="25"/>
     </row>
-    <row r="35" spans="1:24" hidden="1">
+    <row r="35" spans="1:24" ht="15" hidden="1">
       <c r="A35" s="22" t="s">
         <v>46</v>
       </c>
@@ -26979,7 +27153,7 @@
       </c>
       <c r="X35" s="25"/>
     </row>
-    <row r="36" spans="1:24" hidden="1">
+    <row r="36" spans="1:24" ht="15" hidden="1">
       <c r="A36" s="22" t="s">
         <v>48</v>
       </c>
@@ -27047,7 +27221,7 @@
       </c>
       <c r="X36" s="25"/>
     </row>
-    <row r="37" spans="1:24" hidden="1">
+    <row r="37" spans="1:24" ht="15" hidden="1">
       <c r="A37" s="22" t="s">
         <v>50</v>
       </c>
@@ -27115,7 +27289,7 @@
       </c>
       <c r="X37" s="25"/>
     </row>
-    <row r="38" spans="1:24" hidden="1">
+    <row r="38" spans="1:24" ht="15" hidden="1">
       <c r="A38" s="26" t="s">
         <v>52</v>
       </c>
@@ -27187,7 +27361,7 @@
       <c r="W38" s="29"/>
       <c r="X38" s="31"/>
     </row>
-    <row r="39" spans="1:24" hidden="1">
+    <row r="39" spans="1:24" ht="15" hidden="1">
       <c r="A39" s="16" t="s">
         <v>16</v>
       </c>
@@ -27259,7 +27433,7 @@
       <c r="W39" s="19"/>
       <c r="X39" s="21"/>
     </row>
-    <row r="40" spans="1:24" hidden="1">
+    <row r="40" spans="1:24" ht="15" hidden="1">
       <c r="A40" s="22" t="s">
         <v>19</v>
       </c>
@@ -27327,7 +27501,7 @@
       </c>
       <c r="X40" s="25"/>
     </row>
-    <row r="41" spans="1:24" hidden="1">
+    <row r="41" spans="1:24" ht="15" hidden="1">
       <c r="A41" s="22" t="s">
         <v>21</v>
       </c>
@@ -27395,7 +27569,7 @@
       </c>
       <c r="X41" s="25"/>
     </row>
-    <row r="42" spans="1:24" hidden="1">
+    <row r="42" spans="1:24" ht="15" hidden="1">
       <c r="A42" s="22" t="s">
         <v>23</v>
       </c>
@@ -27463,7 +27637,7 @@
       </c>
       <c r="X42" s="25"/>
     </row>
-    <row r="43" spans="1:24" hidden="1">
+    <row r="43" spans="1:24" ht="15" hidden="1">
       <c r="A43" s="22" t="s">
         <v>25</v>
       </c>
@@ -27531,7 +27705,7 @@
       </c>
       <c r="X43" s="25"/>
     </row>
-    <row r="44" spans="1:24" hidden="1">
+    <row r="44" spans="1:24" ht="15" hidden="1">
       <c r="A44" s="22" t="s">
         <v>27</v>
       </c>
@@ -27599,7 +27773,7 @@
       </c>
       <c r="X44" s="25"/>
     </row>
-    <row r="45" spans="1:24" hidden="1">
+    <row r="45" spans="1:24" ht="15" hidden="1">
       <c r="A45" s="22" t="s">
         <v>29</v>
       </c>
@@ -27667,7 +27841,7 @@
       </c>
       <c r="X45" s="25"/>
     </row>
-    <row r="46" spans="1:24" hidden="1">
+    <row r="46" spans="1:24" ht="15" hidden="1">
       <c r="A46" s="22" t="s">
         <v>31</v>
       </c>
@@ -27735,7 +27909,7 @@
       </c>
       <c r="X46" s="25"/>
     </row>
-    <row r="47" spans="1:24" hidden="1">
+    <row r="47" spans="1:24" ht="15" hidden="1">
       <c r="A47" s="22" t="s">
         <v>33</v>
       </c>
@@ -27803,7 +27977,7 @@
       </c>
       <c r="X47" s="25"/>
     </row>
-    <row r="48" spans="1:24" hidden="1">
+    <row r="48" spans="1:24" ht="15" hidden="1">
       <c r="A48" s="22" t="s">
         <v>35</v>
       </c>
@@ -27871,7 +28045,7 @@
       </c>
       <c r="X48" s="25"/>
     </row>
-    <row r="49" spans="1:24">
+    <row r="49" spans="1:24" ht="15">
       <c r="A49" s="22" t="s">
         <v>37</v>
       </c>
@@ -27939,7 +28113,7 @@
       </c>
       <c r="X49" s="25"/>
     </row>
-    <row r="50" spans="1:24" hidden="1">
+    <row r="50" spans="1:24" ht="15" hidden="1">
       <c r="A50" s="22" t="s">
         <v>39</v>
       </c>
@@ -28007,7 +28181,7 @@
       </c>
       <c r="X50" s="25"/>
     </row>
-    <row r="51" spans="1:24" hidden="1">
+    <row r="51" spans="1:24" ht="15" hidden="1">
       <c r="A51" s="22" t="s">
         <v>41</v>
       </c>
@@ -28075,7 +28249,7 @@
       </c>
       <c r="X51" s="25"/>
     </row>
-    <row r="52" spans="1:24" hidden="1">
+    <row r="52" spans="1:24" ht="15" hidden="1">
       <c r="A52" s="22" t="s">
         <v>43</v>
       </c>
@@ -28143,7 +28317,7 @@
       </c>
       <c r="X52" s="25"/>
     </row>
-    <row r="53" spans="1:24" hidden="1">
+    <row r="53" spans="1:24" ht="15" hidden="1">
       <c r="A53" s="22" t="s">
         <v>46</v>
       </c>
@@ -28211,7 +28385,7 @@
       </c>
       <c r="X53" s="25"/>
     </row>
-    <row r="54" spans="1:24" hidden="1">
+    <row r="54" spans="1:24" ht="15" hidden="1">
       <c r="A54" s="22" t="s">
         <v>48</v>
       </c>
@@ -28279,7 +28453,7 @@
       </c>
       <c r="X54" s="25"/>
     </row>
-    <row r="55" spans="1:24" hidden="1">
+    <row r="55" spans="1:24" ht="15" hidden="1">
       <c r="A55" s="22" t="s">
         <v>50</v>
       </c>
@@ -28347,7 +28521,7 @@
       </c>
       <c r="X55" s="25"/>
     </row>
-    <row r="56" spans="1:24" hidden="1">
+    <row r="56" spans="1:24" ht="15" hidden="1">
       <c r="A56" s="26" t="s">
         <v>52</v>
       </c>
@@ -28419,7 +28593,7 @@
       <c r="W56" s="29"/>
       <c r="X56" s="31"/>
     </row>
-    <row r="57" spans="1:24" hidden="1">
+    <row r="57" spans="1:24" ht="15" hidden="1">
       <c r="A57" s="16" t="s">
         <v>16</v>
       </c>
@@ -28491,7 +28665,7 @@
       <c r="W57" s="19"/>
       <c r="X57" s="21"/>
     </row>
-    <row r="58" spans="1:24" hidden="1">
+    <row r="58" spans="1:24" ht="15" hidden="1">
       <c r="A58" s="22" t="s">
         <v>19</v>
       </c>
@@ -28559,7 +28733,7 @@
       </c>
       <c r="X58" s="25"/>
     </row>
-    <row r="59" spans="1:24" hidden="1">
+    <row r="59" spans="1:24" ht="15" hidden="1">
       <c r="A59" s="22" t="s">
         <v>21</v>
       </c>
@@ -28627,7 +28801,7 @@
       </c>
       <c r="X59" s="25"/>
     </row>
-    <row r="60" spans="1:24" hidden="1">
+    <row r="60" spans="1:24" ht="15" hidden="1">
       <c r="A60" s="22" t="s">
         <v>23</v>
       </c>
@@ -28695,7 +28869,7 @@
       </c>
       <c r="X60" s="25"/>
     </row>
-    <row r="61" spans="1:24" hidden="1">
+    <row r="61" spans="1:24" ht="15" hidden="1">
       <c r="A61" s="22" t="s">
         <v>25</v>
       </c>
@@ -28763,7 +28937,7 @@
       </c>
       <c r="X61" s="25"/>
     </row>
-    <row r="62" spans="1:24" hidden="1">
+    <row r="62" spans="1:24" ht="15" hidden="1">
       <c r="A62" s="22" t="s">
         <v>27</v>
       </c>
@@ -28831,7 +29005,7 @@
       </c>
       <c r="X62" s="25"/>
     </row>
-    <row r="63" spans="1:24" hidden="1">
+    <row r="63" spans="1:24" ht="15" hidden="1">
       <c r="A63" s="22" t="s">
         <v>29</v>
       </c>
@@ -28899,7 +29073,7 @@
       </c>
       <c r="X63" s="25"/>
     </row>
-    <row r="64" spans="1:24" hidden="1">
+    <row r="64" spans="1:24" ht="15" hidden="1">
       <c r="A64" s="22" t="s">
         <v>31</v>
       </c>
@@ -28967,7 +29141,7 @@
       </c>
       <c r="X64" s="25"/>
     </row>
-    <row r="65" spans="1:24" hidden="1">
+    <row r="65" spans="1:24" ht="15" hidden="1">
       <c r="A65" s="22" t="s">
         <v>33</v>
       </c>
@@ -29035,7 +29209,7 @@
       </c>
       <c r="X65" s="25"/>
     </row>
-    <row r="66" spans="1:24" hidden="1">
+    <row r="66" spans="1:24" ht="15" hidden="1">
       <c r="A66" s="22" t="s">
         <v>35</v>
       </c>
@@ -29103,7 +29277,7 @@
       </c>
       <c r="X66" s="25"/>
     </row>
-    <row r="67" spans="1:24">
+    <row r="67" spans="1:24" ht="15">
       <c r="A67" s="22" t="s">
         <v>37</v>
       </c>
@@ -29171,7 +29345,7 @@
       </c>
       <c r="X67" s="25"/>
     </row>
-    <row r="68" spans="1:24" hidden="1">
+    <row r="68" spans="1:24" ht="15" hidden="1">
       <c r="A68" s="22" t="s">
         <v>39</v>
       </c>
@@ -29239,7 +29413,7 @@
       </c>
       <c r="X68" s="25"/>
     </row>
-    <row r="69" spans="1:24" hidden="1">
+    <row r="69" spans="1:24" ht="15" hidden="1">
       <c r="A69" s="22" t="s">
         <v>41</v>
       </c>
@@ -29307,7 +29481,7 @@
       </c>
       <c r="X69" s="25"/>
     </row>
-    <row r="70" spans="1:24" hidden="1">
+    <row r="70" spans="1:24" ht="15" hidden="1">
       <c r="A70" s="22" t="s">
         <v>43</v>
       </c>
@@ -29375,7 +29549,7 @@
       </c>
       <c r="X70" s="25"/>
     </row>
-    <row r="71" spans="1:24" hidden="1">
+    <row r="71" spans="1:24" ht="15" hidden="1">
       <c r="A71" s="22" t="s">
         <v>46</v>
       </c>
@@ -29443,7 +29617,7 @@
       </c>
       <c r="X71" s="25"/>
     </row>
-    <row r="72" spans="1:24" hidden="1">
+    <row r="72" spans="1:24" ht="15" hidden="1">
       <c r="A72" s="22" t="s">
         <v>48</v>
       </c>
@@ -29511,7 +29685,7 @@
       </c>
       <c r="X72" s="25"/>
     </row>
-    <row r="73" spans="1:24" hidden="1">
+    <row r="73" spans="1:24" ht="15" hidden="1">
       <c r="A73" s="22" t="s">
         <v>50</v>
       </c>
@@ -29579,7 +29753,7 @@
       </c>
       <c r="X73" s="25"/>
     </row>
-    <row r="74" spans="1:24" hidden="1">
+    <row r="74" spans="1:24" ht="15" hidden="1">
       <c r="A74" s="26" t="s">
         <v>52</v>
       </c>
@@ -29651,7 +29825,7 @@
       <c r="W74" s="29"/>
       <c r="X74" s="31"/>
     </row>
-    <row r="75" spans="1:24" hidden="1">
+    <row r="75" spans="1:24" ht="15" hidden="1">
       <c r="A75" s="16" t="s">
         <v>16</v>
       </c>
@@ -29723,7 +29897,7 @@
       <c r="W75" s="19"/>
       <c r="X75" s="21"/>
     </row>
-    <row r="76" spans="1:24" hidden="1">
+    <row r="76" spans="1:24" ht="15" hidden="1">
       <c r="A76" s="22" t="s">
         <v>19</v>
       </c>
@@ -29791,7 +29965,7 @@
       </c>
       <c r="X76" s="25"/>
     </row>
-    <row r="77" spans="1:24" hidden="1">
+    <row r="77" spans="1:24" ht="15" hidden="1">
       <c r="A77" s="22" t="s">
         <v>21</v>
       </c>
@@ -29859,7 +30033,7 @@
       </c>
       <c r="X77" s="25"/>
     </row>
-    <row r="78" spans="1:24" hidden="1">
+    <row r="78" spans="1:24" ht="15" hidden="1">
       <c r="A78" s="22" t="s">
         <v>23</v>
       </c>
@@ -29927,7 +30101,7 @@
       </c>
       <c r="X78" s="25"/>
     </row>
-    <row r="79" spans="1:24" hidden="1">
+    <row r="79" spans="1:24" ht="15" hidden="1">
       <c r="A79" s="22" t="s">
         <v>25</v>
       </c>
@@ -29995,7 +30169,7 @@
       </c>
       <c r="X79" s="25"/>
     </row>
-    <row r="80" spans="1:24" hidden="1">
+    <row r="80" spans="1:24" ht="15" hidden="1">
       <c r="A80" s="22" t="s">
         <v>27</v>
       </c>
@@ -30063,7 +30237,7 @@
       </c>
       <c r="X80" s="25"/>
     </row>
-    <row r="81" spans="1:24" hidden="1">
+    <row r="81" spans="1:24" ht="15" hidden="1">
       <c r="A81" s="22" t="s">
         <v>29</v>
       </c>
@@ -30131,7 +30305,7 @@
       </c>
       <c r="X81" s="25"/>
     </row>
-    <row r="82" spans="1:24" hidden="1">
+    <row r="82" spans="1:24" ht="15" hidden="1">
       <c r="A82" s="22" t="s">
         <v>31</v>
       </c>
@@ -30199,7 +30373,7 @@
       </c>
       <c r="X82" s="25"/>
     </row>
-    <row r="83" spans="1:24" hidden="1">
+    <row r="83" spans="1:24" ht="15" hidden="1">
       <c r="A83" s="22" t="s">
         <v>33</v>
       </c>
@@ -30267,7 +30441,7 @@
       </c>
       <c r="X83" s="25"/>
     </row>
-    <row r="84" spans="1:24" hidden="1">
+    <row r="84" spans="1:24" ht="15" hidden="1">
       <c r="A84" s="22" t="s">
         <v>35</v>
       </c>
@@ -30335,7 +30509,7 @@
       </c>
       <c r="X84" s="25"/>
     </row>
-    <row r="85" spans="1:24">
+    <row r="85" spans="1:24" ht="15">
       <c r="A85" s="22" t="s">
         <v>37</v>
       </c>
@@ -30403,7 +30577,7 @@
       </c>
       <c r="X85" s="25"/>
     </row>
-    <row r="86" spans="1:24" hidden="1">
+    <row r="86" spans="1:24" ht="15" hidden="1">
       <c r="A86" s="22" t="s">
         <v>39</v>
       </c>
@@ -30471,7 +30645,7 @@
       </c>
       <c r="X86" s="25"/>
     </row>
-    <row r="87" spans="1:24" hidden="1">
+    <row r="87" spans="1:24" ht="15" hidden="1">
       <c r="A87" s="22" t="s">
         <v>41</v>
       </c>
@@ -30539,7 +30713,7 @@
       </c>
       <c r="X87" s="25"/>
     </row>
-    <row r="88" spans="1:24" hidden="1">
+    <row r="88" spans="1:24" ht="15" hidden="1">
       <c r="A88" s="22" t="s">
         <v>43</v>
       </c>
@@ -30607,7 +30781,7 @@
       </c>
       <c r="X88" s="25"/>
     </row>
-    <row r="89" spans="1:24" hidden="1">
+    <row r="89" spans="1:24" ht="15" hidden="1">
       <c r="A89" s="22" t="s">
         <v>46</v>
       </c>
@@ -30675,7 +30849,7 @@
       </c>
       <c r="X89" s="25"/>
     </row>
-    <row r="90" spans="1:24" hidden="1">
+    <row r="90" spans="1:24" ht="15" hidden="1">
       <c r="A90" s="22" t="s">
         <v>48</v>
       </c>
@@ -30743,7 +30917,7 @@
       </c>
       <c r="X90" s="25"/>
     </row>
-    <row r="91" spans="1:24" hidden="1">
+    <row r="91" spans="1:24" ht="15" hidden="1">
       <c r="A91" s="22" t="s">
         <v>50</v>
       </c>
@@ -30811,7 +30985,7 @@
       </c>
       <c r="X91" s="25"/>
     </row>
-    <row r="92" spans="1:24" hidden="1">
+    <row r="92" spans="1:24" ht="15" hidden="1">
       <c r="A92" s="26" t="s">
         <v>52</v>
       </c>
@@ -30883,7 +31057,7 @@
       <c r="W92" s="29"/>
       <c r="X92" s="31"/>
     </row>
-    <row r="93" spans="1:24" hidden="1">
+    <row r="93" spans="1:24" ht="15" hidden="1">
       <c r="A93" s="16" t="s">
         <v>16</v>
       </c>
@@ -30955,7 +31129,7 @@
       <c r="W93" s="19"/>
       <c r="X93" s="21"/>
     </row>
-    <row r="94" spans="1:24" hidden="1">
+    <row r="94" spans="1:24" ht="15" hidden="1">
       <c r="A94" s="22" t="s">
         <v>19</v>
       </c>
@@ -31023,7 +31197,7 @@
       </c>
       <c r="X94" s="25"/>
     </row>
-    <row r="95" spans="1:24" hidden="1">
+    <row r="95" spans="1:24" ht="15" hidden="1">
       <c r="A95" s="22" t="s">
         <v>21</v>
       </c>
@@ -31091,7 +31265,7 @@
       </c>
       <c r="X95" s="25"/>
     </row>
-    <row r="96" spans="1:24" hidden="1">
+    <row r="96" spans="1:24" ht="15" hidden="1">
       <c r="A96" s="22" t="s">
         <v>23</v>
       </c>
@@ -31159,7 +31333,7 @@
       </c>
       <c r="X96" s="25"/>
     </row>
-    <row r="97" spans="1:24" hidden="1">
+    <row r="97" spans="1:24" ht="15" hidden="1">
       <c r="A97" s="22" t="s">
         <v>25</v>
       </c>
@@ -31227,7 +31401,7 @@
       </c>
       <c r="X97" s="25"/>
     </row>
-    <row r="98" spans="1:24" hidden="1">
+    <row r="98" spans="1:24" ht="15" hidden="1">
       <c r="A98" s="22" t="s">
         <v>27</v>
       </c>
@@ -31295,7 +31469,7 @@
       </c>
       <c r="X98" s="25"/>
     </row>
-    <row r="99" spans="1:24" hidden="1">
+    <row r="99" spans="1:24" ht="15" hidden="1">
       <c r="A99" s="22" t="s">
         <v>29</v>
       </c>
@@ -31363,7 +31537,7 @@
       </c>
       <c r="X99" s="25"/>
     </row>
-    <row r="100" spans="1:24" hidden="1">
+    <row r="100" spans="1:24" ht="15" hidden="1">
       <c r="A100" s="22" t="s">
         <v>31</v>
       </c>
@@ -31431,7 +31605,7 @@
       </c>
       <c r="X100" s="25"/>
     </row>
-    <row r="101" spans="1:24" hidden="1">
+    <row r="101" spans="1:24" ht="15" hidden="1">
       <c r="A101" s="22" t="s">
         <v>33</v>
       </c>
@@ -31499,7 +31673,7 @@
       </c>
       <c r="X101" s="25"/>
     </row>
-    <row r="102" spans="1:24" hidden="1">
+    <row r="102" spans="1:24" ht="15" hidden="1">
       <c r="A102" s="22" t="s">
         <v>35</v>
       </c>
@@ -31567,7 +31741,7 @@
       </c>
       <c r="X102" s="25"/>
     </row>
-    <row r="103" spans="1:24">
+    <row r="103" spans="1:24" ht="15">
       <c r="A103" s="22" t="s">
         <v>37</v>
       </c>
@@ -31635,7 +31809,7 @@
       </c>
       <c r="X103" s="25"/>
     </row>
-    <row r="104" spans="1:24" hidden="1">
+    <row r="104" spans="1:24" ht="15" hidden="1">
       <c r="A104" s="22" t="s">
         <v>39</v>
       </c>
@@ -31703,7 +31877,7 @@
       </c>
       <c r="X104" s="25"/>
     </row>
-    <row r="105" spans="1:24" hidden="1">
+    <row r="105" spans="1:24" ht="15" hidden="1">
       <c r="A105" s="22" t="s">
         <v>41</v>
       </c>
@@ -31771,7 +31945,7 @@
       </c>
       <c r="X105" s="25"/>
     </row>
-    <row r="106" spans="1:24" hidden="1">
+    <row r="106" spans="1:24" ht="15" hidden="1">
       <c r="A106" s="22" t="s">
         <v>43</v>
       </c>
@@ -31839,7 +32013,7 @@
       </c>
       <c r="X106" s="25"/>
     </row>
-    <row r="107" spans="1:24" hidden="1">
+    <row r="107" spans="1:24" ht="15" hidden="1">
       <c r="A107" s="22" t="s">
         <v>46</v>
       </c>
@@ -31907,7 +32081,7 @@
       </c>
       <c r="X107" s="25"/>
     </row>
-    <row r="108" spans="1:24" hidden="1">
+    <row r="108" spans="1:24" ht="15" hidden="1">
       <c r="A108" s="22" t="s">
         <v>48</v>
       </c>
@@ -31975,7 +32149,7 @@
       </c>
       <c r="X108" s="25"/>
     </row>
-    <row r="109" spans="1:24" hidden="1">
+    <row r="109" spans="1:24" ht="15" hidden="1">
       <c r="A109" s="22" t="s">
         <v>50</v>
       </c>
@@ -32043,7 +32217,7 @@
       </c>
       <c r="X109" s="25"/>
     </row>
-    <row r="110" spans="1:24" hidden="1">
+    <row r="110" spans="1:24" ht="15" hidden="1">
       <c r="A110" s="26" t="s">
         <v>52</v>
       </c>
@@ -32115,7 +32289,7 @@
       <c r="W110" s="29"/>
       <c r="X110" s="31"/>
     </row>
-    <row r="111" spans="1:24" hidden="1">
+    <row r="111" spans="1:24" ht="15" hidden="1">
       <c r="A111" s="16" t="s">
         <v>16</v>
       </c>
@@ -32187,7 +32361,7 @@
       <c r="W111" s="19"/>
       <c r="X111" s="21"/>
     </row>
-    <row r="112" spans="1:24" hidden="1">
+    <row r="112" spans="1:24" ht="15" hidden="1">
       <c r="A112" s="22" t="s">
         <v>19</v>
       </c>
@@ -32255,7 +32429,7 @@
       </c>
       <c r="X112" s="25"/>
     </row>
-    <row r="113" spans="1:24" hidden="1">
+    <row r="113" spans="1:24" ht="15" hidden="1">
       <c r="A113" s="22" t="s">
         <v>21</v>
       </c>
@@ -32323,7 +32497,7 @@
       </c>
       <c r="X113" s="25"/>
     </row>
-    <row r="114" spans="1:24" hidden="1">
+    <row r="114" spans="1:24" ht="15" hidden="1">
       <c r="A114" s="22" t="s">
         <v>23</v>
       </c>
@@ -32391,7 +32565,7 @@
       </c>
       <c r="X114" s="25"/>
     </row>
-    <row r="115" spans="1:24" hidden="1">
+    <row r="115" spans="1:24" ht="15" hidden="1">
       <c r="A115" s="22" t="s">
         <v>25</v>
       </c>
@@ -32459,7 +32633,7 @@
       </c>
       <c r="X115" s="25"/>
     </row>
-    <row r="116" spans="1:24" hidden="1">
+    <row r="116" spans="1:24" ht="15" hidden="1">
       <c r="A116" s="22" t="s">
         <v>27</v>
       </c>
@@ -32527,7 +32701,7 @@
       </c>
       <c r="X116" s="25"/>
     </row>
-    <row r="117" spans="1:24" hidden="1">
+    <row r="117" spans="1:24" ht="15" hidden="1">
       <c r="A117" s="22" t="s">
         <v>29</v>
       </c>
@@ -32595,7 +32769,7 @@
       </c>
       <c r="X117" s="25"/>
     </row>
-    <row r="118" spans="1:24" hidden="1">
+    <row r="118" spans="1:24" ht="15" hidden="1">
       <c r="A118" s="22" t="s">
         <v>31</v>
       </c>
@@ -32663,7 +32837,7 @@
       </c>
       <c r="X118" s="25"/>
     </row>
-    <row r="119" spans="1:24" hidden="1">
+    <row r="119" spans="1:24" ht="15" hidden="1">
       <c r="A119" s="22" t="s">
         <v>33</v>
       </c>
@@ -32731,7 +32905,7 @@
       </c>
       <c r="X119" s="25"/>
     </row>
-    <row r="120" spans="1:24" hidden="1">
+    <row r="120" spans="1:24" ht="15" hidden="1">
       <c r="A120" s="22" t="s">
         <v>35</v>
       </c>
@@ -32799,7 +32973,7 @@
       </c>
       <c r="X120" s="25"/>
     </row>
-    <row r="121" spans="1:24">
+    <row r="121" spans="1:24" ht="15">
       <c r="A121" s="22" t="s">
         <v>37</v>
       </c>
@@ -32867,7 +33041,7 @@
       </c>
       <c r="X121" s="25"/>
     </row>
-    <row r="122" spans="1:24" hidden="1">
+    <row r="122" spans="1:24" ht="15" hidden="1">
       <c r="A122" s="22" t="s">
         <v>39</v>
       </c>
@@ -32935,7 +33109,7 @@
       </c>
       <c r="X122" s="25"/>
     </row>
-    <row r="123" spans="1:24" hidden="1">
+    <row r="123" spans="1:24" ht="15" hidden="1">
       <c r="A123" s="22" t="s">
         <v>41</v>
       </c>
@@ -33003,7 +33177,7 @@
       </c>
       <c r="X123" s="25"/>
     </row>
-    <row r="124" spans="1:24" hidden="1">
+    <row r="124" spans="1:24" ht="15" hidden="1">
       <c r="A124" s="22" t="s">
         <v>43</v>
       </c>
@@ -33071,7 +33245,7 @@
       </c>
       <c r="X124" s="25"/>
     </row>
-    <row r="125" spans="1:24" hidden="1">
+    <row r="125" spans="1:24" ht="15" hidden="1">
       <c r="A125" s="22" t="s">
         <v>46</v>
       </c>
@@ -33139,7 +33313,7 @@
       </c>
       <c r="X125" s="25"/>
     </row>
-    <row r="126" spans="1:24" hidden="1">
+    <row r="126" spans="1:24" ht="15" hidden="1">
       <c r="A126" s="22" t="s">
         <v>48</v>
       </c>
@@ -33207,7 +33381,7 @@
       </c>
       <c r="X126" s="25"/>
     </row>
-    <row r="127" spans="1:24" hidden="1">
+    <row r="127" spans="1:24" ht="15" hidden="1">
       <c r="A127" s="22" t="s">
         <v>50</v>
       </c>
@@ -33275,7 +33449,7 @@
       </c>
       <c r="X127" s="25"/>
     </row>
-    <row r="128" spans="1:24" hidden="1">
+    <row r="128" spans="1:24" ht="15" hidden="1">
       <c r="A128" s="26" t="s">
         <v>52</v>
       </c>
@@ -33347,7 +33521,7 @@
       <c r="W128" s="29"/>
       <c r="X128" s="31"/>
     </row>
-    <row r="129" spans="1:24" hidden="1">
+    <row r="129" spans="1:24" ht="15" hidden="1">
       <c r="A129" s="16" t="s">
         <v>16</v>
       </c>
@@ -33419,7 +33593,7 @@
       <c r="W129" s="19"/>
       <c r="X129" s="21"/>
     </row>
-    <row r="130" spans="1:24" hidden="1">
+    <row r="130" spans="1:24" ht="15" hidden="1">
       <c r="A130" s="22" t="s">
         <v>19</v>
       </c>
@@ -33487,7 +33661,7 @@
       </c>
       <c r="X130" s="25"/>
     </row>
-    <row r="131" spans="1:24" hidden="1">
+    <row r="131" spans="1:24" ht="15" hidden="1">
       <c r="A131" s="22" t="s">
         <v>21</v>
       </c>
@@ -33555,7 +33729,7 @@
       </c>
       <c r="X131" s="25"/>
     </row>
-    <row r="132" spans="1:24" hidden="1">
+    <row r="132" spans="1:24" ht="15" hidden="1">
       <c r="A132" s="22" t="s">
         <v>23</v>
       </c>
@@ -33623,7 +33797,7 @@
       </c>
       <c r="X132" s="25"/>
     </row>
-    <row r="133" spans="1:24" hidden="1">
+    <row r="133" spans="1:24" ht="15" hidden="1">
       <c r="A133" s="22" t="s">
         <v>25</v>
       </c>
@@ -33691,7 +33865,7 @@
       </c>
       <c r="X133" s="25"/>
     </row>
-    <row r="134" spans="1:24" hidden="1">
+    <row r="134" spans="1:24" ht="15" hidden="1">
       <c r="A134" s="22" t="s">
         <v>27</v>
       </c>
@@ -33759,7 +33933,7 @@
       </c>
       <c r="X134" s="25"/>
     </row>
-    <row r="135" spans="1:24" hidden="1">
+    <row r="135" spans="1:24" ht="15" hidden="1">
       <c r="A135" s="22" t="s">
         <v>29</v>
       </c>
@@ -33827,7 +34001,7 @@
       </c>
       <c r="X135" s="25"/>
     </row>
-    <row r="136" spans="1:24" hidden="1">
+    <row r="136" spans="1:24" ht="15" hidden="1">
       <c r="A136" s="22" t="s">
         <v>31</v>
       </c>
@@ -33895,7 +34069,7 @@
       </c>
       <c r="X136" s="25"/>
     </row>
-    <row r="137" spans="1:24" hidden="1">
+    <row r="137" spans="1:24" ht="15" hidden="1">
       <c r="A137" s="22" t="s">
         <v>33</v>
       </c>
@@ -33963,7 +34137,7 @@
       </c>
       <c r="X137" s="25"/>
     </row>
-    <row r="138" spans="1:24" hidden="1">
+    <row r="138" spans="1:24" ht="15" hidden="1">
       <c r="A138" s="22" t="s">
         <v>35</v>
       </c>
@@ -34031,7 +34205,7 @@
       </c>
       <c r="X138" s="25"/>
     </row>
-    <row r="139" spans="1:24">
+    <row r="139" spans="1:24" ht="15">
       <c r="A139" s="22" t="s">
         <v>37</v>
       </c>
@@ -34099,7 +34273,7 @@
       </c>
       <c r="X139" s="25"/>
     </row>
-    <row r="140" spans="1:24" hidden="1">
+    <row r="140" spans="1:24" ht="15" hidden="1">
       <c r="A140" s="22" t="s">
         <v>39</v>
       </c>
@@ -34167,7 +34341,7 @@
       </c>
       <c r="X140" s="25"/>
     </row>
-    <row r="141" spans="1:24" hidden="1">
+    <row r="141" spans="1:24" ht="15" hidden="1">
       <c r="A141" s="22" t="s">
         <v>41</v>
       </c>
@@ -34235,7 +34409,7 @@
       </c>
       <c r="X141" s="25"/>
     </row>
-    <row r="142" spans="1:24" hidden="1">
+    <row r="142" spans="1:24" ht="15" hidden="1">
       <c r="A142" s="22" t="s">
         <v>43</v>
       </c>
@@ -34303,7 +34477,7 @@
       </c>
       <c r="X142" s="25"/>
     </row>
-    <row r="143" spans="1:24" hidden="1">
+    <row r="143" spans="1:24" ht="15" hidden="1">
       <c r="A143" s="22" t="s">
         <v>46</v>
       </c>
@@ -34371,7 +34545,7 @@
       </c>
       <c r="X143" s="25"/>
     </row>
-    <row r="144" spans="1:24" hidden="1">
+    <row r="144" spans="1:24" ht="15" hidden="1">
       <c r="A144" s="22" t="s">
         <v>48</v>
       </c>
@@ -34439,7 +34613,7 @@
       </c>
       <c r="X144" s="25"/>
     </row>
-    <row r="145" spans="1:24" hidden="1">
+    <row r="145" spans="1:24" ht="15" hidden="1">
       <c r="A145" s="22" t="s">
         <v>50</v>
       </c>
@@ -34507,7 +34681,7 @@
       </c>
       <c r="X145" s="25"/>
     </row>
-    <row r="146" spans="1:24" hidden="1">
+    <row r="146" spans="1:24" ht="15" hidden="1">
       <c r="A146" s="26" t="s">
         <v>52</v>
       </c>
@@ -34579,7 +34753,7 @@
       <c r="W146" s="29"/>
       <c r="X146" s="31"/>
     </row>
-    <row r="147" spans="1:24" hidden="1">
+    <row r="147" spans="1:24" ht="15" hidden="1">
       <c r="A147" s="16" t="s">
         <v>16</v>
       </c>
@@ -34651,7 +34825,7 @@
       <c r="W147" s="19"/>
       <c r="X147" s="21"/>
     </row>
-    <row r="148" spans="1:24" hidden="1">
+    <row r="148" spans="1:24" ht="15" hidden="1">
       <c r="A148" s="22" t="s">
         <v>19</v>
       </c>
@@ -34719,7 +34893,7 @@
       </c>
       <c r="X148" s="25"/>
     </row>
-    <row r="149" spans="1:24" hidden="1">
+    <row r="149" spans="1:24" ht="15" hidden="1">
       <c r="A149" s="22" t="s">
         <v>21</v>
       </c>
@@ -34787,7 +34961,7 @@
       </c>
       <c r="X149" s="25"/>
     </row>
-    <row r="150" spans="1:24" hidden="1">
+    <row r="150" spans="1:24" ht="15" hidden="1">
       <c r="A150" s="22" t="s">
         <v>23</v>
       </c>
@@ -34855,7 +35029,7 @@
       </c>
       <c r="X150" s="25"/>
     </row>
-    <row r="151" spans="1:24" hidden="1">
+    <row r="151" spans="1:24" ht="15" hidden="1">
       <c r="A151" s="22" t="s">
         <v>25</v>
       </c>
@@ -34923,7 +35097,7 @@
       </c>
       <c r="X151" s="25"/>
     </row>
-    <row r="152" spans="1:24" hidden="1">
+    <row r="152" spans="1:24" ht="15" hidden="1">
       <c r="A152" s="22" t="s">
         <v>27</v>
       </c>
@@ -34991,7 +35165,7 @@
       </c>
       <c r="X152" s="25"/>
     </row>
-    <row r="153" spans="1:24" hidden="1">
+    <row r="153" spans="1:24" ht="15" hidden="1">
       <c r="A153" s="22" t="s">
         <v>29</v>
       </c>
@@ -35059,7 +35233,7 @@
       </c>
       <c r="X153" s="25"/>
     </row>
-    <row r="154" spans="1:24" hidden="1">
+    <row r="154" spans="1:24" ht="15" hidden="1">
       <c r="A154" s="22" t="s">
         <v>31</v>
       </c>
@@ -35127,7 +35301,7 @@
       </c>
       <c r="X154" s="25"/>
     </row>
-    <row r="155" spans="1:24" hidden="1">
+    <row r="155" spans="1:24" ht="15" hidden="1">
       <c r="A155" s="22" t="s">
         <v>33</v>
       </c>
@@ -35195,7 +35369,7 @@
       </c>
       <c r="X155" s="25"/>
     </row>
-    <row r="156" spans="1:24" hidden="1">
+    <row r="156" spans="1:24" ht="15" hidden="1">
       <c r="A156" s="22" t="s">
         <v>35</v>
       </c>
@@ -35263,7 +35437,7 @@
       </c>
       <c r="X156" s="25"/>
     </row>
-    <row r="157" spans="1:24">
+    <row r="157" spans="1:24" ht="15">
       <c r="A157" s="22" t="s">
         <v>37</v>
       </c>
@@ -35331,7 +35505,7 @@
       </c>
       <c r="X157" s="25"/>
     </row>
-    <row r="158" spans="1:24" hidden="1">
+    <row r="158" spans="1:24" ht="15" hidden="1">
       <c r="A158" s="22" t="s">
         <v>39</v>
       </c>
@@ -35399,7 +35573,7 @@
       </c>
       <c r="X158" s="25"/>
     </row>
-    <row r="159" spans="1:24" hidden="1">
+    <row r="159" spans="1:24" ht="15" hidden="1">
       <c r="A159" s="22" t="s">
         <v>41</v>
       </c>
@@ -35467,7 +35641,7 @@
       </c>
       <c r="X159" s="25"/>
     </row>
-    <row r="160" spans="1:24" hidden="1">
+    <row r="160" spans="1:24" ht="15" hidden="1">
       <c r="A160" s="22" t="s">
         <v>43</v>
       </c>
@@ -35535,7 +35709,7 @@
       </c>
       <c r="X160" s="25"/>
     </row>
-    <row r="161" spans="1:24" hidden="1">
+    <row r="161" spans="1:24" ht="15" hidden="1">
       <c r="A161" s="22" t="s">
         <v>46</v>
       </c>
@@ -35603,7 +35777,7 @@
       </c>
       <c r="X161" s="25"/>
     </row>
-    <row r="162" spans="1:24" hidden="1">
+    <row r="162" spans="1:24" ht="15" hidden="1">
       <c r="A162" s="22" t="s">
         <v>48</v>
       </c>
@@ -35671,7 +35845,7 @@
       </c>
       <c r="X162" s="25"/>
     </row>
-    <row r="163" spans="1:24" hidden="1">
+    <row r="163" spans="1:24" ht="15" hidden="1">
       <c r="A163" s="22" t="s">
         <v>50</v>
       </c>
@@ -35739,7 +35913,7 @@
       </c>
       <c r="X163" s="25"/>
     </row>
-    <row r="164" spans="1:24" hidden="1">
+    <row r="164" spans="1:24" ht="15" hidden="1">
       <c r="A164" s="26" t="s">
         <v>52</v>
       </c>
@@ -35811,7 +35985,7 @@
       <c r="W164" s="29"/>
       <c r="X164" s="31"/>
     </row>
-    <row r="165" spans="1:24" hidden="1">
+    <row r="165" spans="1:24" ht="15" hidden="1">
       <c r="A165" s="16" t="s">
         <v>16</v>
       </c>
@@ -35883,7 +36057,7 @@
       <c r="W165" s="19"/>
       <c r="X165" s="21"/>
     </row>
-    <row r="166" spans="1:24" hidden="1">
+    <row r="166" spans="1:24" ht="15" hidden="1">
       <c r="A166" s="22" t="s">
         <v>19</v>
       </c>
@@ -35951,7 +36125,7 @@
       </c>
       <c r="X166" s="25"/>
     </row>
-    <row r="167" spans="1:24" hidden="1">
+    <row r="167" spans="1:24" ht="15" hidden="1">
       <c r="A167" s="22" t="s">
         <v>21</v>
       </c>
@@ -36019,7 +36193,7 @@
       </c>
       <c r="X167" s="25"/>
     </row>
-    <row r="168" spans="1:24" hidden="1">
+    <row r="168" spans="1:24" ht="15" hidden="1">
       <c r="A168" s="22" t="s">
         <v>23</v>
       </c>
@@ -36087,7 +36261,7 @@
       </c>
       <c r="X168" s="25"/>
     </row>
-    <row r="169" spans="1:24" hidden="1">
+    <row r="169" spans="1:24" ht="15" hidden="1">
       <c r="A169" s="22" t="s">
         <v>25</v>
       </c>
@@ -36155,7 +36329,7 @@
       </c>
       <c r="X169" s="25"/>
     </row>
-    <row r="170" spans="1:24" hidden="1">
+    <row r="170" spans="1:24" ht="15" hidden="1">
       <c r="A170" s="22" t="s">
         <v>27</v>
       </c>
@@ -36223,7 +36397,7 @@
       </c>
       <c r="X170" s="25"/>
     </row>
-    <row r="171" spans="1:24" hidden="1">
+    <row r="171" spans="1:24" ht="15" hidden="1">
       <c r="A171" s="22" t="s">
         <v>29</v>
       </c>
@@ -36291,7 +36465,7 @@
       </c>
       <c r="X171" s="25"/>
     </row>
-    <row r="172" spans="1:24" hidden="1">
+    <row r="172" spans="1:24" ht="15" hidden="1">
       <c r="A172" s="22" t="s">
         <v>31</v>
       </c>
@@ -36359,7 +36533,7 @@
       </c>
       <c r="X172" s="25"/>
     </row>
-    <row r="173" spans="1:24" hidden="1">
+    <row r="173" spans="1:24" ht="15" hidden="1">
       <c r="A173" s="22" t="s">
         <v>33</v>
       </c>
@@ -36427,7 +36601,7 @@
       </c>
       <c r="X173" s="25"/>
     </row>
-    <row r="174" spans="1:24" hidden="1">
+    <row r="174" spans="1:24" ht="15" hidden="1">
       <c r="A174" s="22" t="s">
         <v>35</v>
       </c>
@@ -36495,7 +36669,7 @@
       </c>
       <c r="X174" s="25"/>
     </row>
-    <row r="175" spans="1:24">
+    <row r="175" spans="1:24" ht="15">
       <c r="A175" s="22" t="s">
         <v>37</v>
       </c>
@@ -36563,7 +36737,7 @@
       </c>
       <c r="X175" s="25"/>
     </row>
-    <row r="176" spans="1:24" hidden="1">
+    <row r="176" spans="1:24" ht="15" hidden="1">
       <c r="A176" s="22" t="s">
         <v>39</v>
       </c>
@@ -36631,7 +36805,7 @@
       </c>
       <c r="X176" s="25"/>
     </row>
-    <row r="177" spans="1:24" hidden="1">
+    <row r="177" spans="1:24" ht="15" hidden="1">
       <c r="A177" s="22" t="s">
         <v>41</v>
       </c>
@@ -36699,7 +36873,7 @@
       </c>
       <c r="X177" s="25"/>
     </row>
-    <row r="178" spans="1:24" hidden="1">
+    <row r="178" spans="1:24" ht="15" hidden="1">
       <c r="A178" s="22" t="s">
         <v>43</v>
       </c>
@@ -36767,7 +36941,7 @@
       </c>
       <c r="X178" s="25"/>
     </row>
-    <row r="179" spans="1:24" hidden="1">
+    <row r="179" spans="1:24" ht="15" hidden="1">
       <c r="A179" s="22" t="s">
         <v>46</v>
       </c>
@@ -36835,7 +37009,7 @@
       </c>
       <c r="X179" s="25"/>
     </row>
-    <row r="180" spans="1:24" hidden="1">
+    <row r="180" spans="1:24" ht="15" hidden="1">
       <c r="A180" s="22" t="s">
         <v>48</v>
       </c>
@@ -36903,7 +37077,7 @@
       </c>
       <c r="X180" s="25"/>
     </row>
-    <row r="181" spans="1:24" hidden="1">
+    <row r="181" spans="1:24" ht="15" hidden="1">
       <c r="A181" s="22" t="s">
         <v>50</v>
       </c>
@@ -36971,7 +37145,7 @@
       </c>
       <c r="X181" s="25"/>
     </row>
-    <row r="182" spans="1:24" hidden="1">
+    <row r="182" spans="1:24" ht="15" hidden="1">
       <c r="A182" s="26" t="s">
         <v>52</v>
       </c>
